--- a/src/main/resources/kegelmeisterschaft/service/importer/2015/clubs.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2015/clubs.xlsx
@@ -789,7 +789,7 @@
         <v>32</v>
       </c>
       <c s="1" r="G10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -829,7 +829,7 @@
         <v>38</v>
       </c>
       <c s="1" r="G12">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -849,7 +849,7 @@
         <v>41</v>
       </c>
       <c s="1" r="G13">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -929,7 +929,7 @@
         <v>53</v>
       </c>
       <c s="1" r="G17">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
@@ -1029,7 +1029,7 @@
         <v>68</v>
       </c>
       <c s="1" r="G22">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">

--- a/src/main/resources/kegelmeisterschaft/service/importer/2015/clubs.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2015/clubs.xlsx
@@ -705,6 +705,9 @@
       <c s="1" r="C6">
         <v>2014.0</v>
       </c>
+      <c s="1" r="D6">
+        <v>10.0</v>
+      </c>
       <c t="s" s="1" r="E6">
         <v>19</v>
       </c>
@@ -889,7 +892,7 @@
         <v>47</v>
       </c>
       <c s="1" r="G15">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +992,7 @@
         <v>62</v>
       </c>
       <c s="1" r="G20">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -1182,6 +1185,9 @@
       <c s="1" r="C30">
         <v>2013.0</v>
       </c>
+      <c s="1" r="D30">
+        <v>9.0</v>
+      </c>
       <c t="s" s="1" r="E30">
         <v>93</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>99</v>
       </c>
       <c s="1" r="G32">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
@@ -1319,7 +1325,9 @@
       <c s="1" r="C37">
         <v>2014.0</v>
       </c>
-      <c s="1" r="D37"/>
+      <c s="1" r="D37">
+        <v>10.0</v>
+      </c>
       <c t="s" s="1" r="E37">
         <v>116</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>148</v>
       </c>
       <c s="1" r="G47">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="48">
@@ -1670,6 +1678,9 @@
       </c>
       <c t="s" s="1" r="B55">
         <v>171</v>
+      </c>
+      <c s="1" r="D55">
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E55">
         <v>172</v>

--- a/src/main/resources/kegelmeisterschaft/service/importer/2015/clubs.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2015/clubs.xlsx
@@ -130,7 +130,7 @@
     <t>Habbel</t>
   </si>
   <si>
-    <t>Mach-Wech</t>
+    <t>KC Mach Wech</t>
   </si>
   <si>
     <t>MALE</t>
@@ -523,7 +523,7 @@
     <t>Kasbar</t>
   </si>
   <si>
-    <t>Hammerwerfer</t>
+    <t>Die Hammerwerfer</t>
   </si>
   <si>
     <t>MIXED</t>
